--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppa-Npr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppa-Npr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H2">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I2">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J2">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8502856666666666</v>
+        <v>0.1644733333333333</v>
       </c>
       <c r="N2">
-        <v>2.550857</v>
+        <v>0.49342</v>
       </c>
       <c r="O2">
-        <v>0.5207586312773204</v>
+        <v>0.2118645341380481</v>
       </c>
       <c r="P2">
-        <v>0.5207586312773205</v>
+        <v>0.2118645341380481</v>
       </c>
       <c r="Q2">
-        <v>0.2930838327291111</v>
+        <v>0.04984994847777778</v>
       </c>
       <c r="R2">
-        <v>2.637754494562</v>
+        <v>0.4486495363</v>
       </c>
       <c r="S2">
-        <v>0.4098641583155524</v>
+        <v>0.1239528060603188</v>
       </c>
       <c r="T2">
-        <v>0.4098641583155525</v>
+        <v>0.1239528060603188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H3">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I3">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J3">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>1.835521</v>
       </c>
       <c r="O3">
-        <v>0.3747224574489195</v>
+        <v>0.7881354658619518</v>
       </c>
       <c r="P3">
-        <v>0.3747224574489195</v>
+        <v>0.7881354658619518</v>
       </c>
       <c r="Q3">
-        <v>0.2108944287095555</v>
+        <v>0.1854416668961111</v>
       </c>
       <c r="R3">
-        <v>1.898049858386</v>
+        <v>1.668975002065</v>
       </c>
       <c r="S3">
-        <v>0.2949260855216584</v>
+        <v>0.4611040868482073</v>
       </c>
       <c r="T3">
-        <v>0.2949260855216584</v>
+        <v>0.4611040868482072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3446886666666666</v>
+        <v>0.214961</v>
       </c>
       <c r="H4">
-        <v>1.034066</v>
+        <v>0.644883</v>
       </c>
       <c r="I4">
-        <v>0.787052069228761</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="J4">
-        <v>0.787052069228761</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1706566666666667</v>
+        <v>0.1644733333333333</v>
       </c>
       <c r="N4">
-        <v>0.51197</v>
+        <v>0.49342</v>
       </c>
       <c r="O4">
-        <v>0.1045189112737601</v>
+        <v>0.2118645341380481</v>
       </c>
       <c r="P4">
-        <v>0.1045189112737601</v>
+        <v>0.2118645341380481</v>
       </c>
       <c r="Q4">
-        <v>0.05882341889111111</v>
+        <v>0.03535535220666666</v>
       </c>
       <c r="R4">
-        <v>0.52941077002</v>
+        <v>0.31819816986</v>
       </c>
       <c r="S4">
-        <v>0.08226182539155014</v>
+        <v>0.08791172807772933</v>
       </c>
       <c r="T4">
-        <v>0.08226182539155015</v>
+        <v>0.08791172807772933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,179 +711,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.09326033333333333</v>
+        <v>0.214961</v>
       </c>
       <c r="H5">
-        <v>0.279781</v>
+        <v>0.644883</v>
       </c>
       <c r="I5">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="J5">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8502856666666666</v>
+        <v>0.6118403333333333</v>
       </c>
       <c r="N5">
-        <v>2.550857</v>
+        <v>1.835521</v>
       </c>
       <c r="O5">
-        <v>0.5207586312773204</v>
+        <v>0.7881354658619518</v>
       </c>
       <c r="P5">
-        <v>0.5207586312773205</v>
+        <v>0.7881354658619518</v>
       </c>
       <c r="Q5">
-        <v>0.07929792470188889</v>
+        <v>0.1315218098936667</v>
       </c>
       <c r="R5">
-        <v>0.7136813223169999</v>
+        <v>1.183696289043</v>
       </c>
       <c r="S5">
-        <v>0.110894472961768</v>
+        <v>0.3270313790137445</v>
       </c>
       <c r="T5">
-        <v>0.110894472961768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.09326033333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.279781</v>
-      </c>
-      <c r="I6">
-        <v>0.212947930771239</v>
-      </c>
-      <c r="J6">
-        <v>0.212947930771239</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.6118403333333333</v>
-      </c>
-      <c r="N6">
-        <v>1.835521</v>
-      </c>
-      <c r="O6">
-        <v>0.3747224574489195</v>
-      </c>
-      <c r="P6">
-        <v>0.3747224574489195</v>
-      </c>
-      <c r="Q6">
-        <v>0.05706043343344444</v>
-      </c>
-      <c r="R6">
-        <v>0.513543900901</v>
-      </c>
-      <c r="S6">
-        <v>0.07979637192726104</v>
-      </c>
-      <c r="T6">
-        <v>0.07979637192726105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.09326033333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.279781</v>
-      </c>
-      <c r="I7">
-        <v>0.212947930771239</v>
-      </c>
-      <c r="J7">
-        <v>0.212947930771239</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.1706566666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.51197</v>
-      </c>
-      <c r="O7">
-        <v>0.1045189112737601</v>
-      </c>
-      <c r="P7">
-        <v>0.1045189112737601</v>
-      </c>
-      <c r="Q7">
-        <v>0.01591549761888889</v>
-      </c>
-      <c r="R7">
-        <v>0.14323947857</v>
-      </c>
-      <c r="S7">
-        <v>0.02225708588220993</v>
-      </c>
-      <c r="T7">
-        <v>0.02225708588220993</v>
+        <v>0.3270313790137445</v>
       </c>
     </row>
   </sheetData>
